--- a/Minjun/01_실습과제/나라장터_Real/test.xlsx
+++ b/Minjun/01_실습과제/나라장터_Real/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SICT_GIt\Minjun\01_실습과제\나라장터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\UiPath\SICT_GIt\Minjun\01_실습과제\나라장터_Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6E4ED-6BC7-4681-81F0-841DDBDCFBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80685C4F-0BB0-4D26-A477-F6D82E9C174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="4005" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,219 +25,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>공고번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공고명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공고기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수요기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계약방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>입력일시</t>
-  </si>
-  <si>
-    <t>B5202200043-00</t>
-  </si>
-  <si>
-    <t>양주수도 신규 제어실 감시제어시스템 정보통신공사 감리 용역</t>
-  </si>
-  <si>
-    <t>한국수자원공사</t>
-  </si>
-  <si>
-    <t>한국수자원공사 양주수도지사</t>
-  </si>
-  <si>
-    <t>수의계약</t>
-  </si>
-  <si>
-    <t>2022/01/10 14:00
-(2022/01/14 14:00)</t>
-  </si>
-  <si>
-    <t>20220105960-00</t>
-  </si>
-  <si>
-    <t>강원대학교 메타버스 플랫폼 구축 1단계 사업</t>
-  </si>
-  <si>
-    <t>조달청 강원지방조달청</t>
-  </si>
-  <si>
-    <t>강원대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수의(총액)소액-견적입찰(2인 이상 견적 제출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제한(총액)협상에의한계약</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:23
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수의(소액)-견적입찰(2인 이상 견적 제출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한경쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106363-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 시정소식지 「내맘愛 우리안양」 포장발송 용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 안양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:32
+(2022/01/14 10:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220105644-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 새 생명 탄생 출산축하 용품 구매(단가계약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 과천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수의(단가)소액-견적입찰(2인 이상 견적 제출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:32
+(2022/01/13 10:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220105326-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운곡초등학교 교실 증축공사 설계용역 수의견적 제출 안내 공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도교육청 경상북도김천교육지원청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:31
+(2022/01/14 10:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106708-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스테이션 서버 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한(총액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:30
+(2022/01/17 10:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106226-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시니어 기능성 화장품 조제 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달청 광주지방조달청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(재)광주테크노파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반(총액)규격가격동시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:28
+(2022/01/25 14:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106596-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능형 민원상담시스템 2차 고도화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반(총액)협상에의한계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:28
 (2022/01/21 10:00)</t>
-  </si>
-  <si>
-    <t>산단 제 2021-109호-00</t>
-  </si>
-  <si>
-    <t>혁신지원사업 학부(과) 실험실습기자재(노트북 외 8종) 구입</t>
-  </si>
-  <si>
-    <t>동양미래대학교 산학협력단</t>
-  </si>
-  <si>
-    <t>동양미래대학교</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:23
-(-)</t>
-  </si>
-  <si>
-    <t>20220106482-00</t>
-  </si>
-  <si>
-    <t>2022학년도 서울경동초등학교 방과후학교 원어민 영어 운영 용역 2단계(규격가격동시) 입찰 공고</t>
-  </si>
-  <si>
-    <t>서울특별시성동교육청 서울경동초등학교</t>
-  </si>
-  <si>
-    <t>제한(총액)규격가격동시</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:22
-(2022/01/20 17:00)</t>
-  </si>
-  <si>
-    <t>20220106287-00</t>
-  </si>
-  <si>
-    <t>2022학년도 경안고등학교 급식 부분위탁 용역 입찰 공고</t>
-  </si>
-  <si>
-    <t>경기도교육청 경안고등학교</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:22
-(2022/01/18 14:00)</t>
-  </si>
-  <si>
-    <t>20220106493-00</t>
-  </si>
-  <si>
-    <t>외식조리과 및 뷰티아트과 실습실 환경개선</t>
-  </si>
-  <si>
-    <t>서울특별시교육청 서울동산고등학교</t>
-  </si>
-  <si>
-    <t>제한경쟁</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:22
-(2022/01/17 10:00)</t>
-  </si>
-  <si>
-    <t>20220106480-01</t>
-  </si>
-  <si>
-    <t>지자체-대학 협력기반 지역혁신사업 생물학적안전캐비넷 구입</t>
-  </si>
-  <si>
-    <t>충북대학교</t>
-  </si>
-  <si>
-    <t>일반(총액)규격가격동시</t>
-  </si>
-  <si>
-    <t>20220106490-00</t>
-  </si>
-  <si>
-    <t>2022년 1,2월 대구구지초등학교 급식 육류 구입 소액수의 견적 제출 공고</t>
-  </si>
-  <si>
-    <t>대구광역시달성교육청 대구구지초등학교</t>
-  </si>
-  <si>
-    <t>수의(총액)소액-견적입찰(2인 이상 견적 제출)</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:21
-(2022/01/18 14:00)</t>
-  </si>
-  <si>
-    <t>20220105560-00</t>
-  </si>
-  <si>
-    <t>파장분산형 X선 형광분석기 시스템 구입</t>
-  </si>
-  <si>
-    <t>조달청 충북지방조달청</t>
-  </si>
-  <si>
-    <t>재단법인한국석회석신소재연구재단</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:21
-(2022/01/21 10:00)</t>
-  </si>
-  <si>
-    <t>20220106481-00</t>
-  </si>
-  <si>
-    <t>2022학년도 동덕초등학교 병설유치원 간식 납품업체 선정 2단계(규격가격동시) 입찰 공고</t>
-  </si>
-  <si>
-    <t>충청남도교육청 충청남도아산교육지원청 동덕초등학교</t>
-  </si>
-  <si>
-    <t>제한(단가)규격가격동시</t>
-  </si>
-  <si>
-    <t>2022/01/10 13:21
-(2022/01/18 15:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220102313-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽파로 골목상권 특별환경개선사업 전기공사 시행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도 포항시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:28
+(2022/01/11 10:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106696-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시민 관심사 및 사회 주요 현안에 대한 2022년 정례 여론조사 용역(긴급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시미디어재단티비에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:28
+(2022/01/21 17:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106703-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성창여자고등학교 교실출입문 개체공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도교육청 성창여자고등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:27
+(2022/01/17 17:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220106619-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[재공고] (21/22 KSP-ADB 공컨) 몽골 경제자유구역의 지속가능한 운영 및 효율화 방안 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국수출입은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/01/10 14:27
+(2022/01/21 16:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56,100,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-										88,913,000  
-							</t>
+			            			47,960,000원
+			            		</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,317,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+			            			26,950,000원
+			            		</t>
   </si>
   <si>
     <t xml:space="preserve">		            			
-		            				196,200,000원
+		            				850,000,000원
 			            		</t>
-  </si>
-  <si>
-    <t>103,703,000원</t>
-  </si>
-  <si>
-    <t>367,000,000원</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-			            			48,400,000원
-			            		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-			            			4,370,000원
-			            		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		            			
-		            				324,000,000원
-			            		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-			            			19,323,000원
-			            		</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335,000,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,000,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,000,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -600,71 +654,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -683,11 +742,11 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -698,108 +757,107 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -813,13 +871,13 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
